--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.49759999999998</v>
+        <v>-20.69999999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.61149999999999</v>
+        <v>-19.62709999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.56050000000001</v>
+        <v>-12.62740000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.41669999999999</v>
+        <v>-14.54439999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.6076</v>
+        <v>-21.63139999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.0318</v>
+        <v>-12.2554</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.6087</v>
+        <v>-12.62660000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.80790000000001</v>
+        <v>-12.74730000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.13909999999998</v>
+        <v>-22.16239999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.38269999999998</v>
+        <v>-21.23929999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.15589999999999</v>
+        <v>-21.1808</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.33530000000002</v>
+        <v>-11.26510000000002</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2693</v>
+        <v>-20.15239999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.93679999999999</v>
+        <v>-12.65759999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.66969999999998</v>
+        <v>-13.35819999999998</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.06699999999998</v>
+        <v>-13.91879999999998</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.24689999999999</v>
+        <v>-11.9811</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.1642</v>
+        <v>-22.2623</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.31280000000002</v>
+        <v>-22.2625</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-22.0748</v>
+        <v>-21.9591</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.6189</v>
+        <v>-12.2387</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.8275</v>
+        <v>-10.9857</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.39280000000001</v>
+        <v>-11.3472</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.90539999999999</v>
+        <v>-13.26929999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.3603</v>
+        <v>-11.4224</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.1845</v>
+        <v>-12.3951</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.93569999999999</v>
+        <v>-21.8824</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
